--- a/biology/Zoologie/Acratosaura/Acratosaura.xlsx
+++ b/biology/Zoologie/Acratosaura/Acratosaura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acratosaura est un genre de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acratosaura est un genre de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces de ce genre sont endémiques du Brésil[1]. Elles se rencontrent au Nordeste et dans le Nord du Minas Gerais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces de ce genre sont endémiques du Brésil. Elles se rencontrent au Nordeste et dans le Nord du Minas Gerais.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des reptiles diurnes, et ovipares, ils sont assez petits, aux pattes avant presque atrophiées et possédant une très longue queue.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (6 janvier 2016)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (6 janvier 2016) :
 Acratosaura mentalis (Amaral, 1933)
 Acratosaura spinosa Rodrigues, Cassimiro, De Freitas &amp; Santos Silva, 2009</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été créé en 2007 pour y placer une seule espèce qui était auparavant classée dans le genre Colobosaura, une seconde espèce a été décrite en 2009.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Rodrigues, Pellegrino, Dixo, Verdade, Pavan, Suzart Argôlo, &amp; Sites, 2007 : A new genus of microteiid lizard from the Atlantic forests of State of Bahia, Brazil, with a new generic name for Colobosaura mentalis, and a discussion of relationships among the Heterodactylini (Squamata, Gymnophthalmidae). American Museum novitates, no 3565, p. 1-27 (texte intégral).</t>
         </is>
